--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cytl1-Ccr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Ccr2</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +537,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.725400527826394</v>
+        <v>0.7903210000000001</v>
       </c>
       <c r="H2">
-        <v>0.725400527826394</v>
+        <v>2.370963</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0818483001015924</v>
+        <v>0.1152486666666667</v>
       </c>
       <c r="N2">
-        <v>0.0818483001015924</v>
+        <v>0.345746</v>
       </c>
       <c r="O2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="P2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270825</v>
       </c>
       <c r="Q2">
-        <v>0.05937280009538822</v>
+        <v>0.09108344148866668</v>
       </c>
       <c r="R2">
-        <v>0.05937280009538822</v>
+        <v>0.8197509733980001</v>
       </c>
       <c r="S2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270826</v>
       </c>
       <c r="T2">
-        <v>0.0002803303714269286</v>
+        <v>0.0002846832990270825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +599,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.725400527826394</v>
+        <v>0.7903210000000001</v>
       </c>
       <c r="H3">
-        <v>0.725400527826394</v>
+        <v>2.370963</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,31 +620,31 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.2624317428959</v>
+        <v>0.006638666666666667</v>
       </c>
       <c r="N3">
-        <v>94.2624317428959</v>
+        <v>0.019916</v>
       </c>
       <c r="O3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="P3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="Q3">
-        <v>68.37801774049612</v>
+        <v>0.005246677678666667</v>
       </c>
       <c r="R3">
-        <v>68.37801774049612</v>
+        <v>0.047220099108</v>
       </c>
       <c r="S3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
       <c r="T3">
-        <v>0.3228487637408783</v>
+        <v>1.63986064435261E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.725400527826394</v>
+        <v>0.7903210000000001</v>
       </c>
       <c r="H4">
-        <v>0.725400527826394</v>
+        <v>2.370963</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>173.000693656401</v>
+        <v>153.646004</v>
       </c>
       <c r="N4">
-        <v>173.000693656401</v>
+        <v>460.938012</v>
       </c>
       <c r="O4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="P4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="Q4">
-        <v>125.4947944926856</v>
+        <v>121.429663527284</v>
       </c>
       <c r="R4">
-        <v>125.4947944926856</v>
+        <v>1092.866971745556</v>
       </c>
       <c r="S4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
       <c r="T4">
-        <v>0.5925272565174708</v>
+        <v>0.3795310832320402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.725400527826394</v>
+        <v>0.7903210000000001</v>
       </c>
       <c r="H5">
-        <v>0.725400527826394</v>
+        <v>2.370963</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +741,158 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.6258879841602</v>
+        <v>224.6466153333333</v>
       </c>
       <c r="N5">
-        <v>24.6258879841602</v>
+        <v>673.939846</v>
       </c>
       <c r="O5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507024</v>
       </c>
       <c r="P5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507023</v>
       </c>
       <c r="Q5">
-        <v>17.86363214190346</v>
+        <v>177.5429376768553</v>
       </c>
       <c r="R5">
-        <v>17.86363214190346</v>
+        <v>1597.886439091698</v>
       </c>
       <c r="S5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507024</v>
       </c>
       <c r="T5">
-        <v>0.08434364937022384</v>
+        <v>0.5549143553507023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7903210000000001</v>
+      </c>
+      <c r="H6">
+        <v>2.370963</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>26.38673933333333</v>
+      </c>
+      <c r="N6">
+        <v>79.160218</v>
+      </c>
+      <c r="O6">
+        <v>0.06517961744154104</v>
+      </c>
+      <c r="P6">
+        <v>0.06517961744154101</v>
+      </c>
+      <c r="Q6">
+        <v>20.85399421665933</v>
+      </c>
+      <c r="R6">
+        <v>187.685947949934</v>
+      </c>
+      <c r="S6">
+        <v>0.06517961744154104</v>
+      </c>
+      <c r="T6">
+        <v>0.06517961744154101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7903210000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.370963</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.02990166666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.08970500000000001</v>
+      </c>
+      <c r="O7">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="P7">
+        <v>7.386207024585805E-05</v>
+      </c>
+      <c r="Q7">
+        <v>0.02363191510166667</v>
+      </c>
+      <c r="R7">
+        <v>0.212687235915</v>
+      </c>
+      <c r="S7">
+        <v>7.386207024585807E-05</v>
+      </c>
+      <c r="T7">
+        <v>7.386207024585805E-05</v>
       </c>
     </row>
   </sheetData>
